--- a/Stock-Analysis/BLK/BLK.xlsx
+++ b/Stock-Analysis/BLK/BLK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Stock-Analysis/Stock Analysis/BLK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/BLK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{92A95CA1-C236-48B1-B4EB-605AE41DAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFA63669-996C-4DF0-8A7F-07B08F587357}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{92A95CA1-C236-48B1-B4EB-605AE41DAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3665426-C2AC-43E8-B73F-BA4D6006F225}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="IOV" sheetId="4" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>Growth</t>
   </si>
   <si>
-    <t>Pivot</t>
-  </si>
-  <si>
     <t>YOC</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>[Analysis -2022] [Div = 19.52][Pivot 2.75% - 3.0%][Growth 10 - 15%]</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="7">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N6" s="7">
         <v>15.75</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
         <v>31.82</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="7">
         <v>34.299999999999997</v>
@@ -1714,7 +1714,7 @@
         <v>1.42579641779989E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N9" s="7">
         <v>39.950000000000003</v>
@@ -1779,7 +1779,7 @@
         <v>1.42171672793199E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7">
         <v>53.99</v>
@@ -1844,7 +1844,7 @@
         <v>1.16303219106957E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7">
         <v>70</v>
@@ -1909,7 +1909,7 @@
         <v>1.61689291101055E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="7">
         <v>108</v>
@@ -1974,7 +1974,7 @@
         <v>1.51382823871906E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N13" s="7">
         <v>144.82</v>
@@ -2039,7 +2039,7 @@
         <v>1.77919728858058E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" s="7">
         <v>98.88</v>
@@ -2104,7 +2104,7 @@
         <v>2.3341308598247401E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N15" s="7">
         <v>90.57</v>
@@ -2169,7 +2169,7 @@
         <v>2.96080995574955E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="7">
         <v>139.44</v>
@@ -2234,7 +2234,7 @@
         <v>3.1821798289623199E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
         <v>141.77000000000001</v>
@@ -2299,7 +2299,7 @@
         <v>2.4880595357103099E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N18" s="7">
         <v>163.37</v>
@@ -2364,7 +2364,7 @@
         <v>2.3915038871539802E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7">
         <v>212.77</v>
@@ -2429,7 +2429,7 @@
         <v>2.44535138070913E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N20" s="7">
         <v>286.39</v>
@@ -2494,7 +2494,7 @@
         <v>2.5717338493380201E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" s="7">
         <v>293.52</v>
@@ -2559,7 +2559,7 @@
         <v>2.3657999952684E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N22" s="7">
         <v>289.72000000000003</v>
@@ -2624,7 +2624,7 @@
         <v>2.26544217419519E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N23" s="7">
         <v>371.64</v>
@@ -2689,7 +2689,7 @@
         <v>2.95884515525697E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N24" s="7">
         <v>361.77</v>
@@ -2754,7 +2754,7 @@
         <v>2.5468322458429799E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N25" s="7">
         <v>377.98</v>
@@ -2819,7 +2819,7 @@
         <v>1.8917619036713001E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N26" s="7">
         <v>327.42</v>
@@ -2884,7 +2884,7 @@
         <v>2.2393623510593499E-2</v>
       </c>
       <c r="M27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N27" s="7">
         <v>683.21</v>
@@ -2933,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8FA1C0-125F-4E09-8416-0C3BFF7D9B7A}">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>339.48200000000003</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>380.98099999999999</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>476.87200000000001</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>533.14400000000001</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5">
         <v>576.97699999999998</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5">
         <v>598.21199999999999</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>725.31100000000004</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5">
         <v>1191.386</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>2098</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>4845</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>5064</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>4700</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>8612</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>9081</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>9337</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
         <v>10180</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>11081</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5">
         <v>11401</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>12261</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>13600</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>14198</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>14539</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5">
         <v>16205</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
         <v>19374</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>339.48200000000003</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>380.98099999999999</v>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>476.87200000000001</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>533.14400000000001</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5">
         <v>576.97699999999998</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5">
         <v>598.21199999999999</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>725.31100000000004</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5">
         <v>1191.386</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>2098</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>4845</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>5064</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>4700</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>8612</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>9081</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>9337</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
         <v>10180</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>11081</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5">
         <v>11401</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>12261</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>13600</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>14198</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>14539</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5">
         <v>16205</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
         <v>19374</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>34.213999999999999</v>
@@ -5667,7 +5667,7 @@
         <v>21.713999999999995</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="5">
         <v>53.734999999999999</v>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>118.245</v>
@@ -5715,7 +5715,7 @@
         <v>117.69500000000001</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="5">
         <v>116.32599999999999</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>1.1379999999999999</v>
@@ -5763,7 +5763,7 @@
         <v>1.1219999999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="5">
         <v>108.607</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>1.94</v>
@@ -5811,7 +5811,7 @@
         <v>-5.4670000000000005</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="5">
         <v>167.37299999999999</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5">
         <v>5.0380000000000003</v>
@@ -5859,7 +5859,7 @@
         <v>-7.4060000000000006</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5">
         <v>172.04499999999999</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5">
         <v>7.5380000000000003</v>
@@ -5907,7 +5907,7 @@
         <v>-101.49400000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5">
         <v>179.595</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5">
         <v>15.369</v>
@@ -5955,7 +5955,7 @@
         <v>-105.898</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" s="5">
         <v>231.358</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5">
         <v>15.847</v>
@@ -6003,7 +6003,7 @@
         <v>-138.22499999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J10" s="5">
         <v>254.93700000000001</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5">
         <v>6</v>
@@ -6051,7 +6051,7 @@
         <v>-161</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="5">
         <v>721</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
@@ -6099,7 +6099,7 @@
         <v>-729</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5">
         <v>587</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
@@ -6147,7 +6147,7 @@
         <v>-459</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="5">
         <v>1916</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5">
         <v>2804</v>
@@ -6195,7 +6195,7 @@
         <v>2336</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="5">
         <v>1399</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
@@ -6243,7 +6243,7 @@
         <v>-1034</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="5">
         <v>2488</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
@@ -6291,7 +6291,7 @@
         <v>-3894</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="5">
         <v>2826</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="5">
         <v>7</v>
@@ -6339,7 +6339,7 @@
         <v>-2698</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="5">
         <v>2240</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5">
         <v>7</v>
@@ -6387,7 +6387,7 @@
         <v>-2404</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="5">
         <v>3642</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>-2682</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="5">
         <v>3087</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -6483,7 +6483,7 @@
         <v>-2807</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="5">
         <v>3004</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>-2944</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="5">
         <v>2273</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>-3083</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" s="5">
         <v>3950</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>-4055</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="5">
         <v>3075</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -6675,7 +6675,7 @@
         <v>-4007</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="5">
         <v>2884</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>-4069</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" s="5">
         <v>3743</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>-4032</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="5">
         <v>4944</v>
@@ -6815,7 +6815,7 @@
   <dimension ref="C2:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6847,7 +6847,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="19">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>62</v>
@@ -6867,7 +6867,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="20">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>60</v>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="D7" s="1">
         <f>$D$4*(1+$D$5)^C7</f>
-        <v>3.5640000000000001</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ref="D8:D36" si="2">$D$4*(1+$D$5)^C8</f>
-        <v>3.8491200000000001</v>
+        <v>3.7632000000000003</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>4.1570496000000006</v>
+        <v>4.2147840000000016</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>4.4896135680000011</v>
+        <v>4.7205580800000009</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>4.8487826534400007</v>
+        <v>5.2870250496000013</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>5.2366852657152014</v>
+        <v>5.921468055552003</v>
       </c>
       <c r="G12">
         <v>6</v>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>5.6556200869724176</v>
+        <v>6.6320442222182425</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>6.1080696939302115</v>
+        <v>7.4278895288844327</v>
       </c>
       <c r="G14">
         <v>8</v>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>6.5967152694446289</v>
+        <v>8.3192362723505653</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>7.1244524910001994</v>
+        <v>9.3175446250326335</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>7.6944086902802153</v>
+        <v>10.435649980036551</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>8.3099613855026337</v>
+        <v>11.687927977640935</v>
       </c>
       <c r="G18">
         <v>12</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>8.9747582963428432</v>
+        <v>13.090479334957852</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>9.6927389600502725</v>
+        <v>14.661336855152793</v>
       </c>
       <c r="G20">
         <v>14</v>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>10.468158076854296</v>
+        <v>16.420697277771129</v>
       </c>
       <c r="G21">
         <v>15</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>11.305610723002639</v>
+        <v>18.391180951103667</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>12.21005958084285</v>
+        <v>20.598122665236108</v>
       </c>
       <c r="G23">
         <v>17</v>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>13.18686434731028</v>
+        <v>23.069897385064444</v>
       </c>
       <c r="G24">
         <v>18</v>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>14.241813495095103</v>
+        <v>25.838285071272182</v>
       </c>
       <c r="G25">
         <v>19</v>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>15.381158574702711</v>
+        <v>28.938879279824839</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>16.611651260678929</v>
+        <v>32.41154479340382</v>
       </c>
       <c r="G27">
         <v>21</v>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>17.940583361533246</v>
+        <v>36.30093016861229</v>
       </c>
       <c r="G28">
         <v>22</v>
@@ -7414,7 +7414,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>19.375830030455905</v>
+        <v>40.65704178884576</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>20.925896432892376</v>
+        <v>45.535886803507253</v>
       </c>
       <c r="G30">
         <v>24</v>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>22.599968147523771</v>
+        <v>51.000193219928136</v>
       </c>
       <c r="G31">
         <v>25</v>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>24.407965599325671</v>
+        <v>57.120216406319507</v>
       </c>
       <c r="G32">
         <v>26</v>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>26.360602847271725</v>
+        <v>63.974642375077863</v>
       </c>
       <c r="G33">
         <v>27</v>
@@ -7529,7 +7529,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v>28.469451075053463</v>
+        <v>71.651599460087198</v>
       </c>
       <c r="G34">
         <v>28</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>30.747007161057741</v>
+        <v>80.249791395297677</v>
       </c>
       <c r="G35">
         <v>29</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>33.206767733942364</v>
+        <v>89.879766362733406</v>
       </c>
       <c r="G36">
         <v>30</v>
@@ -7611,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0F072-8EE5-43E6-9721-479E2A316DC3}">
   <dimension ref="B2:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7633,10 +7633,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -7780,47 +7780,47 @@
         <v>67</v>
       </c>
       <c r="J5" s="5">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="K5" s="1">
         <f>K4/$J7</f>
-        <v>825.84615384615392</v>
+        <v>858.88</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:T5" si="1">L4/$J7</f>
-        <v>908.43076923076933</v>
+        <v>944.76800000000003</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>999.27384615384631</v>
+        <v>1039.2448000000002</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>1099.201230769231</v>
+        <v>1143.1692800000001</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>1209.1213538461541</v>
+        <v>1257.4862080000003</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>1330.0334892307696</v>
+        <v>1383.2348288000003</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>1463.0368381538465</v>
+        <v>1521.5583116800001</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>1609.3405219692308</v>
+        <v>1673.7141428479999</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>1770.2745741661538</v>
+        <v>1841.0855571328</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>1947.3020315827694</v>
+        <v>2025.1941128460799</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -7859,10 +7859,10 @@
         <v>1.6396451514224537E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -7880,51 +7880,51 @@
         <v>1.541806681162285E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2">
         <f>J4/$J5</f>
-        <v>2.7531734837799717E-2</v>
+        <v>2.8005738880918219E-2</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:T8" si="2">K4/$J5</f>
-        <v>3.0284908321579693E-2</v>
+        <v>3.0806312769010046E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>3.3313399153737662E-2</v>
+        <v>3.3886944045911055E-2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>3.6644739069111427E-2</v>
+        <v>3.7275638450502156E-2</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>4.0309212976022572E-2</v>
+        <v>4.1003202295552377E-2</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>4.4340134273624834E-2</v>
+        <v>4.510352252510761E-2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>4.8774147700987314E-2</v>
+        <v>4.9613874777618375E-2</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>5.3651562471086045E-2</v>
+        <v>5.4575262255380209E-2</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>5.9016718718194645E-2</v>
+        <v>6.0032788480918226E-2</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>6.49183905900141E-2</v>
+        <v>6.6036067329010045E-2</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>7.1410229649015514E-2</v>
+        <v>7.2639674061911047E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">

--- a/Stock-Analysis/BLK/BLK.xlsx
+++ b/Stock-Analysis/BLK/BLK.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-Analysis/BLK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{92A95CA1-C236-48B1-B4EB-605AE41DAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3665426-C2AC-43E8-B73F-BA4D6006F225}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{92A95CA1-C236-48B1-B4EB-605AE41DAD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{013CA8D3-030F-42D1-ACF9-ABD201F73717}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="5" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="720" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="IOV" sheetId="4" r:id="rId1"/>
+    <sheet name="Aesop" sheetId="4" r:id="rId1"/>
     <sheet name="Margins" sheetId="2" r:id="rId2"/>
     <sheet name="Growth" sheetId="9" r:id="rId3"/>
     <sheet name="Owner" sheetId="6" r:id="rId4"/>
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8823418-CB30-4C4D-A185-44436F679E29}">
   <dimension ref="B3:X27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7611,7 +7611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D0F072-8EE5-43E6-9721-479E2A316DC3}">
   <dimension ref="B2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
